--- a/coordinate_sys/static/process_data_temp/muju20190619_1123.xlsx
+++ b/coordinate_sys/static/process_data_temp/muju20190619_1123.xlsx
@@ -11,7 +11,6 @@
     <sheet name="模具清单 (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">模具清单!$A$1:$AO$94</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'模具清单 (2)'!$A$1:$F$98</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">模具清单!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'模具清单 (2)'!$1:$5</definedName>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="266">
   <si>
     <t>备注
 Remark</t>
@@ -165,16 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模具总重
-量（T）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模具重
-量（T）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>左侧围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,16 +190,6 @@
   <si>
     <t>设计
 SPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际
-SPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对件
-方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -567,27 +546,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>挖空
-系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模具
-导向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产线
 主/副</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成型压力(吨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送料
-高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1099,21 +1063,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模具尺寸长
-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模具尺寸宽
-W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模具尺寸高
-H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注Remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1131,36 +1080,85 @@
     <t>整车尺寸高_Z</t>
   </si>
   <si>
+    <t>零件尺寸宽_Y</t>
+  </si>
+  <si>
+    <t>零件尺寸高_Z</t>
+  </si>
+  <si>
+    <t>零件重量_kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料尺寸卷宽_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料尺寸步距_W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料尺寸厚_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板料重量_kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模具尺寸长L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模具尺寸宽W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模具尺寸高H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模具重量（T）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模具总重量（T）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖空系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送料高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模具导向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产线主/副</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计SPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际SPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对件方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>零件尺寸长_X</t>
-  </si>
-  <si>
-    <t>零件尺寸宽_Y</t>
-  </si>
-  <si>
-    <t>零件尺寸高_Z</t>
-  </si>
-  <si>
-    <t>零件重量_kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料尺寸卷宽_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料尺寸步距_W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料尺寸厚_T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板料重量_kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>station</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2284,8 +2282,8 @@
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1514475</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>325755</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>39614</xdr:rowOff>
     </xdr:to>
@@ -2322,8 +2320,8 @@
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1476374</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>287654</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>102212</xdr:rowOff>
     </xdr:to>
@@ -2413,8 +2411,8 @@
       <xdr:rowOff>161846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1512999</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324279</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>146154</xdr:rowOff>
     </xdr:to>
@@ -2495,8 +2493,8 @@
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1505127</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>316407</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
@@ -2571,8 +2569,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1524560</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335840</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2761,8 +2759,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1313273</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>124553</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>122703</xdr:rowOff>
     </xdr:to>
@@ -2852,8 +2850,8 @@
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1283292</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>94572</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -2896,8 +2894,8 @@
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>73598</xdr:rowOff>
     </xdr:to>
@@ -2940,8 +2938,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>130498</xdr:rowOff>
     </xdr:to>
@@ -3031,8 +3029,8 @@
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1323976</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135256</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>159074</xdr:rowOff>
     </xdr:to>
@@ -3078,8 +3076,8 @@
       <xdr:rowOff>82888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1358003</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>169283</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>117662</xdr:rowOff>
     </xdr:to>
@@ -3125,8 +3123,8 @@
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1238249</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>49529</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>164775</xdr:rowOff>
     </xdr:to>
@@ -3169,8 +3167,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>161508</xdr:rowOff>
     </xdr:to>
@@ -3293,8 +3291,8 @@
       <xdr:rowOff>72230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -3373,8 +3371,8 @@
       <xdr:rowOff>158800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -3771,160 +3769,167 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AO1144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AF1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.8984375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="11.59765625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.09765625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.19921875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.296875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.59765625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="7" style="1" customWidth="1"/>
-    <col min="22" max="22" width="5.19921875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.19921875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="31" style="4" customWidth="1"/>
-    <col min="25" max="27" width="11.296875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.8984375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.19921875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.3984375" style="5" customWidth="1"/>
-    <col min="31" max="31" width="7.3984375" style="10" customWidth="1"/>
-    <col min="32" max="32" width="16.59765625" style="10" customWidth="1"/>
-    <col min="33" max="33" width="7.69921875" style="5" customWidth="1"/>
-    <col min="34" max="35" width="6.69921875" style="5" customWidth="1"/>
-    <col min="36" max="36" width="6.8984375" style="1" customWidth="1"/>
-    <col min="37" max="39" width="7.59765625" style="5" customWidth="1"/>
-    <col min="40" max="40" width="7.59765625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.8984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.69921875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.59765625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.296875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.296875" style="5" customWidth="1"/>
+    <col min="31" max="31" width="11.19921875" style="10" customWidth="1"/>
+    <col min="32" max="32" width="21.69921875" style="10" customWidth="1"/>
+    <col min="33" max="33" width="15.19921875" style="5" customWidth="1"/>
+    <col min="34" max="34" width="9.19921875" style="5" customWidth="1"/>
+    <col min="35" max="35" width="9.69921875" style="5" customWidth="1"/>
+    <col min="36" max="36" width="9.8984375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="17.69921875" style="5" customWidth="1"/>
+    <col min="38" max="38" width="11.09765625" style="5" customWidth="1"/>
+    <col min="39" max="39" width="12.3984375" style="5" customWidth="1"/>
+    <col min="40" max="40" width="13.8984375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="33" customHeight="1">
       <c r="A1" s="150" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="146" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="146" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="146" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="146" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="146" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="146" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="146" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="146" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="146" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="147" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="146" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="146" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="146" t="s">
-        <v>252</v>
-      </c>
-      <c r="I1" s="146" t="s">
-        <v>253</v>
-      </c>
-      <c r="J1" s="146" t="s">
-        <v>254</v>
-      </c>
-      <c r="K1" s="146" t="s">
-        <v>255</v>
-      </c>
-      <c r="L1" s="146" t="s">
-        <v>256</v>
-      </c>
-      <c r="M1" s="146" t="s">
-        <v>257</v>
-      </c>
       <c r="N1" s="148" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="O1" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="P1" s="146" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q1" s="146" t="s">
+        <v>249</v>
+      </c>
+      <c r="R1" s="146" t="s">
+        <v>250</v>
+      </c>
+      <c r="S1" s="148" t="s">
         <v>251</v>
-      </c>
-      <c r="P1" s="146" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q1" s="146" t="s">
-        <v>260</v>
-      </c>
-      <c r="R1" s="146" t="s">
-        <v>261</v>
-      </c>
-      <c r="S1" s="148" t="s">
-        <v>262</v>
       </c>
       <c r="T1" s="146" t="s">
         <v>20</v>
       </c>
       <c r="U1" s="146" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="V1" s="146" t="s">
         <v>3</v>
       </c>
       <c r="W1" s="146" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="X1" s="146" t="s">
         <v>4</v>
       </c>
       <c r="Y1" s="146" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Z1" s="146" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AA1" s="146" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AB1" s="146" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="AC1" s="149" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="AD1" s="149" t="s">
-        <v>119</v>
+        <v>258</v>
       </c>
       <c r="AE1" s="146" t="s">
-        <v>123</v>
+        <v>259</v>
       </c>
       <c r="AF1" s="147" t="s">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="AG1" s="146" t="s">
-        <v>121</v>
+        <v>261</v>
       </c>
       <c r="AH1" s="146" t="s">
-        <v>32</v>
+        <v>262</v>
       </c>
       <c r="AI1" s="146" t="s">
-        <v>33</v>
+        <v>263</v>
       </c>
       <c r="AJ1" s="146" t="s">
-        <v>34</v>
+        <v>264</v>
       </c>
       <c r="AK1" s="148" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AL1" s="148" t="s">
         <v>21</v>
@@ -3936,7 +3941,7 @@
         <v>23</v>
       </c>
       <c r="AO1" s="147" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="20" customFormat="1" ht="15.9" customHeight="1">
@@ -3944,19 +3949,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="155" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="158" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="155" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" s="154" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F2" s="155" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" s="155"/>
       <c r="H2" s="154">
@@ -3981,7 +3986,7 @@
         <v>13.901999999999999</v>
       </c>
       <c r="O2" s="155" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P2" s="155">
         <v>1665</v>
@@ -3996,7 +4001,7 @@
         <v>25.2</v>
       </c>
       <c r="T2" s="155" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U2" s="197">
         <f>N2/S2</f>
@@ -4009,7 +4014,7 @@
         <v>5</v>
       </c>
       <c r="X2" s="82" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="82">
         <v>5200</v>
@@ -4041,7 +4046,7 @@
       </c>
       <c r="AI2" s="160"/>
       <c r="AJ2" s="158" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK2" s="19">
         <v>1920</v>
@@ -4056,7 +4061,7 @@
         <v>240</v>
       </c>
       <c r="AO2" s="211" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:41" s="20" customFormat="1" ht="15.9" customHeight="1">
@@ -4109,7 +4114,7 @@
         <v>905</v>
       </c>
       <c r="AF3" s="19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AG3" s="161"/>
       <c r="AH3" s="161"/>
@@ -4148,7 +4153,7 @@
         <v>7</v>
       </c>
       <c r="X4" s="89" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Y4" s="17">
         <v>4440</v>
@@ -4171,7 +4176,7 @@
         <v>900</v>
       </c>
       <c r="AF4" s="19" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AG4" s="161"/>
       <c r="AH4" s="161"/>
@@ -4210,7 +4215,7 @@
         <v>8</v>
       </c>
       <c r="X5" s="89" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="Y5" s="17">
         <v>4420</v>
@@ -4233,7 +4238,7 @@
         <v>900</v>
       </c>
       <c r="AF5" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AG5" s="161"/>
       <c r="AH5" s="161"/>
@@ -4272,7 +4277,7 @@
         <v>9</v>
       </c>
       <c r="X6" s="107" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="Y6" s="17">
         <v>4500</v>
@@ -4295,7 +4300,7 @@
         <v>900</v>
       </c>
       <c r="AF6" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AG6" s="190"/>
       <c r="AH6" s="190"/>
@@ -4315,13 +4320,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="166" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" s="168" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" s="169" t="s">
         <v>12</v>
@@ -4364,7 +4369,7 @@
         <v>25.2</v>
       </c>
       <c r="T7" s="169" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U7" s="206">
         <f>N7/S7</f>
@@ -4403,7 +4408,7 @@
         <v>905</v>
       </c>
       <c r="AF7" s="68" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AG7" s="177" t="s">
         <v>13</v>
@@ -4413,7 +4418,7 @@
       </c>
       <c r="AI7" s="177"/>
       <c r="AJ7" s="165" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK7" s="68">
         <v>1920</v>
@@ -4428,7 +4433,7 @@
         <v>240</v>
       </c>
       <c r="AO7" s="191" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:41" s="20" customFormat="1" ht="15.9" customHeight="1">
@@ -4458,7 +4463,7 @@
         <v>7</v>
       </c>
       <c r="X8" s="91" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Y8" s="108">
         <v>4440</v>
@@ -4481,7 +4486,7 @@
         <v>900</v>
       </c>
       <c r="AF8" s="68" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AG8" s="178"/>
       <c r="AH8" s="178"/>
@@ -4520,7 +4525,7 @@
         <v>8</v>
       </c>
       <c r="X9" s="89" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="Y9" s="17">
         <v>4420</v>
@@ -4543,7 +4548,7 @@
         <v>900</v>
       </c>
       <c r="AF9" s="68" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AG9" s="178"/>
       <c r="AH9" s="178"/>
@@ -4582,7 +4587,7 @@
         <v>9</v>
       </c>
       <c r="X10" s="112" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="Y10" s="108">
         <v>4500</v>
@@ -4605,7 +4610,7 @@
         <v>900</v>
       </c>
       <c r="AF10" s="68" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AG10" s="220"/>
       <c r="AH10" s="178"/>
@@ -4625,13 +4630,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="157" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="154" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" s="154" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="154" t="s">
         <v>12</v>
@@ -4659,13 +4664,13 @@
         <v>2.2919999999999998</v>
       </c>
       <c r="O11" s="154" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P11" s="154">
         <v>1300</v>
       </c>
       <c r="Q11" s="154" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R11" s="154">
         <v>0.65</v>
@@ -4674,7 +4679,7 @@
         <v>6.0359999999999996</v>
       </c>
       <c r="T11" s="154" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U11" s="196">
         <f>(N11+N13)/(S11+S13)</f>
@@ -4687,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="X11" s="131" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Y11" s="17">
         <v>4170</v>
@@ -4713,17 +4718,17 @@
         <v>900</v>
       </c>
       <c r="AF11" s="19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AG11" s="160" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AH11" s="160">
         <v>11</v>
       </c>
       <c r="AI11" s="160"/>
       <c r="AJ11" s="157" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AK11" s="19">
         <v>960</v>
@@ -4738,7 +4743,7 @@
         <v>130</v>
       </c>
       <c r="AO11" s="211" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:41" s="20" customFormat="1" ht="15.9" customHeight="1">
@@ -4768,7 +4773,7 @@
         <v>7</v>
       </c>
       <c r="X12" s="131" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Y12" s="17">
         <v>4200</v>
@@ -4791,7 +4796,7 @@
         <v>800</v>
       </c>
       <c r="AF12" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AG12" s="161"/>
       <c r="AH12" s="161"/>
@@ -4834,7 +4839,7 @@
         <v>8</v>
       </c>
       <c r="X13" s="131" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Y13" s="17">
         <v>4300</v>
@@ -4857,7 +4862,7 @@
         <v>800</v>
       </c>
       <c r="AF13" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AG13" s="161"/>
       <c r="AH13" s="161"/>
@@ -4896,7 +4901,7 @@
         <v>9</v>
       </c>
       <c r="X14" s="131" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Y14" s="17">
         <v>4240</v>
@@ -4919,7 +4924,7 @@
         <v>800</v>
       </c>
       <c r="AF14" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AG14" s="190"/>
       <c r="AH14" s="161"/>
@@ -4936,19 +4941,19 @@
         <v>4</v>
       </c>
       <c r="B15" s="162" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" s="171" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" s="162" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E15" s="162" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F15" s="162" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G15" s="162"/>
       <c r="H15" s="162">
@@ -4973,7 +4978,7 @@
         <v>5.359</v>
       </c>
       <c r="O15" s="163" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P15" s="163">
         <v>1345</v>
@@ -4988,7 +4993,7 @@
         <v>19.437999999999999</v>
       </c>
       <c r="T15" s="163" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U15" s="182">
         <f>(N15+N17)/(S15+S17)</f>
@@ -5001,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="X15" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Y15" s="26">
         <v>3760</v>
@@ -5027,17 +5032,17 @@
         <v>885</v>
       </c>
       <c r="AF15" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AG15" s="187" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AH15" s="187">
         <v>8</v>
       </c>
       <c r="AI15" s="187"/>
       <c r="AJ15" s="171" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AK15" s="11">
         <v>900</v>
@@ -5052,7 +5057,7 @@
         <v>65</v>
       </c>
       <c r="AO15" s="208" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="15.9" customHeight="1">
@@ -5082,7 +5087,7 @@
         <v>7</v>
       </c>
       <c r="X16" s="25" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Y16" s="28">
         <v>3640</v>
@@ -5105,7 +5110,7 @@
         <v>820</v>
       </c>
       <c r="AF16" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AG16" s="188"/>
       <c r="AH16" s="188"/>
@@ -5148,7 +5153,7 @@
         <v>8</v>
       </c>
       <c r="X17" s="24" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Y17" s="28">
         <v>3600</v>
@@ -5171,7 +5176,7 @@
         <v>800</v>
       </c>
       <c r="AF17" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AG17" s="188"/>
       <c r="AH17" s="188"/>
@@ -5212,7 +5217,7 @@
         <v>9</v>
       </c>
       <c r="X18" s="132" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Y18" s="28">
         <v>3960</v>
@@ -5235,7 +5240,7 @@
         <v>790</v>
       </c>
       <c r="AF18" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AG18" s="189"/>
       <c r="AH18" s="188"/>
@@ -5257,16 +5262,16 @@
         <v>19</v>
       </c>
       <c r="C19" s="158" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D19" s="155" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E19" s="155" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F19" s="155" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G19" s="155"/>
       <c r="H19" s="155">
@@ -5291,13 +5296,13 @@
         <v>5.1219999999999999</v>
       </c>
       <c r="O19" s="154" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P19" s="154">
         <v>1115</v>
       </c>
       <c r="Q19" s="154" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="R19" s="154">
         <v>0.7</v>
@@ -5306,7 +5311,7 @@
         <v>15.218999999999999</v>
       </c>
       <c r="T19" s="154" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="U19" s="196">
         <f>(N19+N21)/(S19+S21)</f>
@@ -5319,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="X19" s="121" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y19" s="56">
         <v>3760</v>
@@ -5345,17 +5350,17 @@
         <v>860</v>
       </c>
       <c r="AF19" s="19" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AG19" s="160" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AH19" s="160">
         <v>8</v>
       </c>
       <c r="AI19" s="160"/>
       <c r="AJ19" s="157" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AK19" s="19">
         <v>900</v>
@@ -5370,7 +5375,7 @@
         <v>70</v>
       </c>
       <c r="AO19" s="211" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="15.9" customHeight="1">
@@ -5400,7 +5405,7 @@
         <v>7</v>
       </c>
       <c r="X20" s="54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y20" s="56">
         <v>3860</v>
@@ -5423,7 +5428,7 @@
         <v>825</v>
       </c>
       <c r="AF20" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AG20" s="161"/>
       <c r="AH20" s="161"/>
@@ -5466,7 +5471,7 @@
         <v>8</v>
       </c>
       <c r="X21" s="121" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Y21" s="56">
         <v>3600</v>
@@ -5489,7 +5494,7 @@
         <v>800</v>
       </c>
       <c r="AF21" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AG21" s="161"/>
       <c r="AH21" s="161"/>
@@ -5530,7 +5535,7 @@
         <v>9</v>
       </c>
       <c r="X22" s="54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Y22" s="56">
         <v>3920</v>
@@ -5553,7 +5558,7 @@
         <v>750</v>
       </c>
       <c r="AF22" s="19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AG22" s="190"/>
       <c r="AH22" s="161"/>
@@ -5572,19 +5577,19 @@
         <v>6</v>
       </c>
       <c r="B23" s="162" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C23" s="171" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D23" s="162" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E23" s="162" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F23" s="162" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G23" s="162"/>
       <c r="H23" s="162">
@@ -5609,7 +5614,7 @@
         <v>6.6559999999999997</v>
       </c>
       <c r="O23" s="162" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P23" s="162">
         <v>1545</v>
@@ -5624,7 +5629,7 @@
         <v>10.169</v>
       </c>
       <c r="T23" s="168" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U23" s="181">
         <f>(N23+N25)/(S23+S25)</f>
@@ -5634,10 +5639,10 @@
         <v>4</v>
       </c>
       <c r="W23" s="42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="X23" s="133" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y23" s="36"/>
       <c r="Z23" s="37"/>
@@ -5651,21 +5656,21 @@
       <c r="AE23" s="40"/>
       <c r="AF23" s="11"/>
       <c r="AG23" s="187" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH23" s="187">
         <v>8</v>
       </c>
       <c r="AI23" s="187"/>
       <c r="AJ23" s="171" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK23" s="33"/>
       <c r="AL23" s="33"/>
       <c r="AM23" s="33"/>
       <c r="AN23" s="33"/>
       <c r="AO23" s="208" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:41" ht="15.9" customHeight="1">
@@ -5692,10 +5697,10 @@
       <c r="U24" s="182"/>
       <c r="V24" s="172"/>
       <c r="W24" s="42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X24" s="70" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y24" s="43">
         <v>2590</v>
@@ -5718,7 +5723,7 @@
         <v>850</v>
       </c>
       <c r="AF24" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AG24" s="188"/>
       <c r="AH24" s="188"/>
@@ -5762,10 +5767,10 @@
       <c r="U25" s="182"/>
       <c r="V25" s="172"/>
       <c r="W25" s="42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X25" s="133" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y25" s="36">
         <v>2440</v>
@@ -5788,7 +5793,7 @@
         <v>880</v>
       </c>
       <c r="AF25" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AG25" s="188"/>
       <c r="AH25" s="188"/>
@@ -5826,10 +5831,10 @@
       <c r="U26" s="182"/>
       <c r="V26" s="172"/>
       <c r="W26" s="42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X26" s="70" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Y26" s="45">
         <v>2440</v>
@@ -5852,7 +5857,7 @@
         <v>785</v>
       </c>
       <c r="AF26" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AG26" s="188"/>
       <c r="AH26" s="188"/>
@@ -5890,10 +5895,10 @@
       <c r="U27" s="182"/>
       <c r="V27" s="172"/>
       <c r="W27" s="104" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X27" s="133" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Y27" s="36">
         <v>2540</v>
@@ -5916,7 +5921,7 @@
         <v>840</v>
       </c>
       <c r="AF27" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AG27" s="189"/>
       <c r="AH27" s="188"/>
@@ -5935,19 +5940,19 @@
         <v>7</v>
       </c>
       <c r="B28" s="154" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C28" s="157" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D28" s="154" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E28" s="154" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F28" s="154" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G28" s="154"/>
       <c r="H28" s="154">
@@ -5972,7 +5977,7 @@
         <v>6.6559999999999997</v>
       </c>
       <c r="O28" s="154" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P28" s="154">
         <v>1545</v>
@@ -5987,7 +5992,7 @@
         <v>10.169</v>
       </c>
       <c r="T28" s="154" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U28" s="196">
         <f>(N28+N30)/(S28+S30)</f>
@@ -5997,7 +6002,7 @@
         <v>4</v>
       </c>
       <c r="W28" s="53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X28" s="54" t="s">
         <v>6</v>
@@ -6026,24 +6031,24 @@
         <v>850</v>
       </c>
       <c r="AF28" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AG28" s="160" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AH28" s="160">
         <v>8</v>
       </c>
       <c r="AI28" s="160"/>
       <c r="AJ28" s="157" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK28" s="67"/>
       <c r="AL28" s="67"/>
       <c r="AM28" s="67"/>
       <c r="AN28" s="67"/>
       <c r="AO28" s="211" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:41" ht="15.9" customHeight="1">
@@ -6070,10 +6075,10 @@
       <c r="U29" s="197"/>
       <c r="V29" s="158"/>
       <c r="W29" s="53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X29" s="121" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y29" s="56">
         <v>2440</v>
@@ -6096,7 +6101,7 @@
         <v>880</v>
       </c>
       <c r="AF29" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AG29" s="161"/>
       <c r="AH29" s="161"/>
@@ -6140,10 +6145,10 @@
       <c r="U30" s="197"/>
       <c r="V30" s="158"/>
       <c r="W30" s="53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X30" s="54" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Y30" s="117">
         <v>2440</v>
@@ -6166,7 +6171,7 @@
         <v>785</v>
       </c>
       <c r="AF30" s="19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AG30" s="161"/>
       <c r="AH30" s="161"/>
@@ -6204,10 +6209,10 @@
       <c r="U31" s="197"/>
       <c r="V31" s="158"/>
       <c r="W31" s="115" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X31" s="121" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Y31" s="56">
         <v>2540</v>
@@ -6230,7 +6235,7 @@
         <v>840</v>
       </c>
       <c r="AF31" s="19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AG31" s="190"/>
       <c r="AH31" s="161"/>
@@ -6249,19 +6254,19 @@
         <v>8</v>
       </c>
       <c r="B32" s="162" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C32" s="171" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D32" s="162" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E32" s="162" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F32" s="162" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G32" s="162"/>
       <c r="H32" s="162">
@@ -6286,7 +6291,7 @@
         <v>6.1</v>
       </c>
       <c r="O32" s="162" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P32" s="162">
         <v>1555</v>
@@ -6301,7 +6306,7 @@
         <v>10.567</v>
       </c>
       <c r="T32" s="168" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U32" s="181">
         <f>(N32+N34)/(S32+S34)</f>
@@ -6311,10 +6316,10 @@
         <v>4</v>
       </c>
       <c r="W32" s="42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="X32" s="133" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y32" s="36"/>
       <c r="Z32" s="37"/>
@@ -6328,21 +6333,21 @@
       <c r="AE32" s="40"/>
       <c r="AF32" s="11"/>
       <c r="AG32" s="187" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH32" s="187">
         <v>8</v>
       </c>
       <c r="AI32" s="187"/>
       <c r="AJ32" s="171" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK32" s="33"/>
       <c r="AL32" s="33"/>
       <c r="AM32" s="33"/>
       <c r="AN32" s="33"/>
       <c r="AO32" s="208" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:41" ht="15.9" customHeight="1">
@@ -6369,10 +6374,10 @@
       <c r="U33" s="182"/>
       <c r="V33" s="172"/>
       <c r="W33" s="42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X33" s="70" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y33" s="36">
         <v>2470</v>
@@ -6395,7 +6400,7 @@
         <v>840</v>
       </c>
       <c r="AF33" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AG33" s="188"/>
       <c r="AH33" s="188"/>
@@ -6439,10 +6444,10 @@
       <c r="U34" s="182"/>
       <c r="V34" s="172"/>
       <c r="W34" s="42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X34" s="133" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y34" s="36">
         <v>2500</v>
@@ -6465,7 +6470,7 @@
         <v>870</v>
       </c>
       <c r="AF34" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AG34" s="188"/>
       <c r="AH34" s="188"/>
@@ -6503,10 +6508,10 @@
       <c r="U35" s="182"/>
       <c r="V35" s="172"/>
       <c r="W35" s="42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X35" s="70" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Y35" s="36">
         <v>2540</v>
@@ -6529,7 +6534,7 @@
         <v>830</v>
       </c>
       <c r="AF35" s="11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AG35" s="188"/>
       <c r="AH35" s="188"/>
@@ -6567,10 +6572,10 @@
       <c r="U36" s="183"/>
       <c r="V36" s="173"/>
       <c r="W36" s="42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X36" s="133" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Y36" s="36">
         <v>2540</v>
@@ -6593,7 +6598,7 @@
         <v>865</v>
       </c>
       <c r="AF36" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AG36" s="189"/>
       <c r="AH36" s="188"/>
@@ -6615,16 +6620,16 @@
         <v>18</v>
       </c>
       <c r="C37" s="158" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D37" s="155" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E37" s="155" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F37" s="155" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G37" s="155"/>
       <c r="H37" s="155">
@@ -6649,7 +6654,7 @@
         <v>6.1</v>
       </c>
       <c r="O37" s="155" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P37" s="155">
         <v>1555</v>
@@ -6664,7 +6669,7 @@
         <v>10.567</v>
       </c>
       <c r="T37" s="155" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U37" s="197">
         <f>(N37+N39)/(S37+S39)</f>
@@ -6674,7 +6679,7 @@
         <v>4</v>
       </c>
       <c r="W37" s="53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X37" s="54" t="s">
         <v>6</v>
@@ -6703,17 +6708,17 @@
         <v>840</v>
       </c>
       <c r="AF37" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AG37" s="160" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH37" s="160">
         <v>8</v>
       </c>
       <c r="AI37" s="160"/>
       <c r="AJ37" s="157" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK37" s="67">
         <v>1020</v>
@@ -6728,7 +6733,7 @@
         <v>180</v>
       </c>
       <c r="AO37" s="211" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:41" ht="15.9" customHeight="1">
@@ -6755,10 +6760,10 @@
       <c r="U38" s="197"/>
       <c r="V38" s="158"/>
       <c r="W38" s="53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X38" s="121" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y38" s="56">
         <v>2500</v>
@@ -6781,7 +6786,7 @@
         <v>870</v>
       </c>
       <c r="AF38" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AG38" s="161"/>
       <c r="AH38" s="161"/>
@@ -6819,10 +6824,10 @@
       <c r="U39" s="197"/>
       <c r="V39" s="158"/>
       <c r="W39" s="53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X39" s="54" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Y39" s="56">
         <v>2540</v>
@@ -6845,7 +6850,7 @@
         <v>830</v>
       </c>
       <c r="AF39" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AG39" s="161"/>
       <c r="AH39" s="161"/>
@@ -6883,10 +6888,10 @@
       <c r="U40" s="197"/>
       <c r="V40" s="158"/>
       <c r="W40" s="53" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X40" s="121" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Y40" s="56">
         <v>2540</v>
@@ -6909,7 +6914,7 @@
         <v>865</v>
       </c>
       <c r="AF40" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AG40" s="190"/>
       <c r="AH40" s="161"/>
@@ -6928,19 +6933,19 @@
         <v>10</v>
       </c>
       <c r="B41" s="162" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C41" s="171" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D41" s="162" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E41" s="162" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F41" s="162" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G41" s="162"/>
       <c r="H41" s="162">
@@ -6965,7 +6970,7 @@
         <v>7.4589999999999996</v>
       </c>
       <c r="O41" s="162" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P41" s="162">
         <v>1420</v>
@@ -6980,7 +6985,7 @@
         <v>18.571000000000002</v>
       </c>
       <c r="T41" s="168" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U41" s="181">
         <f>(N41+N43)/(S41+S43)</f>
@@ -6990,10 +6995,10 @@
         <v>4</v>
       </c>
       <c r="W41" s="42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X41" s="24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y41" s="36">
         <v>3470</v>
@@ -7019,15 +7024,15 @@
         <v>941</v>
       </c>
       <c r="AF41" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AG41" s="187" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH41" s="187"/>
       <c r="AI41" s="187"/>
       <c r="AJ41" s="171" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK41" s="52">
         <v>600</v>
@@ -7042,7 +7047,7 @@
         <v>126</v>
       </c>
       <c r="AO41" s="208" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:41" ht="15.9" customHeight="1">
@@ -7069,10 +7074,10 @@
       <c r="U42" s="182"/>
       <c r="V42" s="172"/>
       <c r="W42" s="42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X42" s="25" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="Y42" s="36">
         <v>4200</v>
@@ -7095,7 +7100,7 @@
         <v>797</v>
       </c>
       <c r="AF42" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AG42" s="188"/>
       <c r="AH42" s="188"/>
@@ -7131,10 +7136,10 @@
       <c r="U43" s="182"/>
       <c r="V43" s="172"/>
       <c r="W43" s="42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X43" s="24" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Y43" s="36">
         <v>3400</v>
@@ -7157,7 +7162,7 @@
         <v>790</v>
       </c>
       <c r="AF43" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AG43" s="188"/>
       <c r="AH43" s="188"/>
@@ -7193,10 +7198,10 @@
       <c r="U44" s="182"/>
       <c r="V44" s="172"/>
       <c r="W44" s="42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X44" s="25" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Y44" s="36">
         <v>3200</v>
@@ -7219,7 +7224,7 @@
         <v>795</v>
       </c>
       <c r="AF44" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AG44" s="189"/>
       <c r="AH44" s="188"/>
@@ -7236,19 +7241,19 @@
         <v>11</v>
       </c>
       <c r="B45" s="154" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C45" s="157" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D45" s="154" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E45" s="154" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F45" s="154" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G45" s="217"/>
       <c r="H45" s="154">
@@ -7273,7 +7278,7 @@
         <v>13.58</v>
       </c>
       <c r="O45" s="154" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P45" s="154">
         <v>1420</v>
@@ -7288,7 +7293,7 @@
         <v>18.571000000000002</v>
       </c>
       <c r="T45" s="154" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U45" s="196">
         <f>(N45+N47)/(S45+S47)</f>
@@ -7298,10 +7303,10 @@
         <v>4</v>
       </c>
       <c r="W45" s="53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X45" s="54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y45" s="56">
         <v>3470</v>
@@ -7327,15 +7332,15 @@
         <v>941</v>
       </c>
       <c r="AF45" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG45" s="160" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH45" s="160"/>
       <c r="AI45" s="160"/>
       <c r="AJ45" s="157" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK45" s="66">
         <v>600</v>
@@ -7350,7 +7355,7 @@
         <v>126</v>
       </c>
       <c r="AO45" s="211" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:41" s="20" customFormat="1" ht="15.9" customHeight="1">
@@ -7377,10 +7382,10 @@
       <c r="U46" s="197"/>
       <c r="V46" s="158"/>
       <c r="W46" s="53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X46" s="121" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Y46" s="56">
         <v>4200</v>
@@ -7403,7 +7408,7 @@
         <v>798</v>
       </c>
       <c r="AF46" s="19" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="AG46" s="161"/>
       <c r="AH46" s="161"/>
@@ -7439,10 +7444,10 @@
       <c r="U47" s="197"/>
       <c r="V47" s="158"/>
       <c r="W47" s="53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X47" s="54" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Y47" s="61">
         <v>3440</v>
@@ -7465,7 +7470,7 @@
         <v>790</v>
       </c>
       <c r="AF47" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AG47" s="161"/>
       <c r="AH47" s="161"/>
@@ -7501,10 +7506,10 @@
       <c r="U48" s="198"/>
       <c r="V48" s="159"/>
       <c r="W48" s="53" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X48" s="121" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="Y48" s="56">
         <v>3200</v>
@@ -7527,7 +7532,7 @@
         <v>785</v>
       </c>
       <c r="AF48" s="19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AG48" s="190"/>
       <c r="AH48" s="190"/>
@@ -7547,16 +7552,16 @@
         <v>14</v>
       </c>
       <c r="C49" s="166" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D49" s="169" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E49" s="168" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F49" s="169" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G49" s="169"/>
       <c r="H49" s="168">
@@ -7581,7 +7586,7 @@
         <v>6.5780000000000003</v>
       </c>
       <c r="O49" s="169" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P49" s="169">
         <v>1545</v>
@@ -7596,7 +7601,7 @@
         <v>13.577999999999999</v>
       </c>
       <c r="T49" s="169" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U49" s="206">
         <f>(N49+N52)/(S49+S52)</f>
@@ -7606,10 +7611,10 @@
         <v>4</v>
       </c>
       <c r="W49" s="42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="X49" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y49" s="36">
         <v>3500</v>
@@ -7634,7 +7639,7 @@
       <c r="AE49" s="50"/>
       <c r="AF49" s="68"/>
       <c r="AG49" s="177" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH49" s="177"/>
       <c r="AI49" s="177"/>
@@ -7654,7 +7659,7 @@
         <v>200</v>
       </c>
       <c r="AO49" s="191" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:41" s="20" customFormat="1" ht="15.9" customHeight="1">
@@ -7681,10 +7686,10 @@
       <c r="U50" s="206"/>
       <c r="V50" s="166"/>
       <c r="W50" s="42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X50" s="24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y50" s="36">
         <v>2820</v>
@@ -7707,7 +7712,7 @@
         <v>930</v>
       </c>
       <c r="AF50" s="68" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AG50" s="178"/>
       <c r="AH50" s="178"/>
@@ -7743,10 +7748,10 @@
       <c r="U51" s="206"/>
       <c r="V51" s="166"/>
       <c r="W51" s="42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X51" s="25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y51" s="55">
         <v>2990</v>
@@ -7769,7 +7774,7 @@
         <v>905</v>
       </c>
       <c r="AF51" s="68" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AG51" s="178"/>
       <c r="AH51" s="178"/>
@@ -7805,10 +7810,10 @@
       <c r="U52" s="206"/>
       <c r="V52" s="166"/>
       <c r="W52" s="42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X52" s="24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Y52" s="36">
         <v>3200</v>
@@ -7831,7 +7836,7 @@
         <v>880</v>
       </c>
       <c r="AF52" s="68" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AG52" s="178"/>
       <c r="AH52" s="178"/>
@@ -7867,10 +7872,10 @@
       <c r="U53" s="206"/>
       <c r="V53" s="166"/>
       <c r="W53" s="42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X53" s="25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Y53" s="36">
         <v>2510</v>
@@ -7893,7 +7898,7 @@
         <v>895</v>
       </c>
       <c r="AF53" s="97" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AG53" s="178"/>
       <c r="AH53" s="178"/>
@@ -7910,19 +7915,19 @@
         <v>13</v>
       </c>
       <c r="B54" s="154" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C54" s="157" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D54" s="154" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E54" s="154" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F54" s="154" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G54" s="154"/>
       <c r="H54" s="154">
@@ -7947,7 +7952,7 @@
         <v>5.5129999999999999</v>
       </c>
       <c r="O54" s="154" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P54" s="154">
         <v>1410</v>
@@ -7962,7 +7967,7 @@
         <v>12.266999999999999</v>
       </c>
       <c r="T54" s="154" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U54" s="213">
         <f>N54/S54</f>
@@ -7972,10 +7977,10 @@
         <v>4</v>
       </c>
       <c r="W54" s="53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="X54" s="121" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y54" s="61">
         <v>3500</v>
@@ -8000,7 +8005,7 @@
       <c r="AE54" s="64"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="160" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH54" s="160"/>
       <c r="AI54" s="160"/>
@@ -8012,7 +8017,7 @@
       <c r="AM54" s="69"/>
       <c r="AN54" s="69"/>
       <c r="AO54" s="211" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:41" ht="15.75" customHeight="1">
@@ -8039,10 +8044,10 @@
       <c r="U55" s="213"/>
       <c r="V55" s="158"/>
       <c r="W55" s="53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X55" s="54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y55" s="56">
         <v>2470</v>
@@ -8065,7 +8070,7 @@
         <v>923</v>
       </c>
       <c r="AF55" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AG55" s="161"/>
       <c r="AH55" s="161"/>
@@ -8109,10 +8114,10 @@
       <c r="U56" s="213"/>
       <c r="V56" s="158"/>
       <c r="W56" s="53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X56" s="121" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y56" s="56">
         <v>2880</v>
@@ -8135,7 +8140,7 @@
         <v>870</v>
       </c>
       <c r="AF56" s="19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AG56" s="161"/>
       <c r="AH56" s="161"/>
@@ -8176,10 +8181,10 @@
       </c>
       <c r="V57" s="158"/>
       <c r="W57" s="53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X57" s="54" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Y57" s="56">
         <v>2400</v>
@@ -8202,7 +8207,7 @@
         <v>760</v>
       </c>
       <c r="AF57" s="19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AG57" s="161"/>
       <c r="AH57" s="161"/>
@@ -8238,10 +8243,10 @@
       <c r="U58" s="197"/>
       <c r="V58" s="158"/>
       <c r="W58" s="115" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X58" s="123" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Y58" s="124">
         <v>2780</v>
@@ -8264,7 +8269,7 @@
         <v>830</v>
       </c>
       <c r="AF58" s="94" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AG58" s="161"/>
       <c r="AH58" s="161"/>
@@ -8281,19 +8286,19 @@
         <v>14</v>
       </c>
       <c r="B59" s="162" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C59" s="171" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D59" s="162" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E59" s="162" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F59" s="162" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G59" s="162"/>
       <c r="H59" s="162">
@@ -8318,7 +8323,7 @@
         <v>7.2240000000000002</v>
       </c>
       <c r="O59" s="162" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="P59" s="162">
         <v>1005</v>
@@ -8333,7 +8338,7 @@
         <v>11.234</v>
       </c>
       <c r="T59" s="168" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U59" s="181">
         <f>N59/S59</f>
@@ -8343,10 +8348,10 @@
         <v>4</v>
       </c>
       <c r="W59" s="42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X59" s="24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y59" s="36">
         <v>2760</v>
@@ -8372,15 +8377,15 @@
         <v>760</v>
       </c>
       <c r="AF59" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AG59" s="187" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH59" s="187"/>
       <c r="AI59" s="187"/>
       <c r="AJ59" s="171" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK59" s="98">
         <v>990</v>
@@ -8395,7 +8400,7 @@
         <v>200</v>
       </c>
       <c r="AO59" s="208" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:41" ht="15.9" customHeight="1">
@@ -8422,10 +8427,10 @@
       <c r="U60" s="183"/>
       <c r="V60" s="172"/>
       <c r="W60" s="42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X60" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Y60" s="36">
         <v>2880</v>
@@ -8448,7 +8453,7 @@
         <v>900</v>
       </c>
       <c r="AF60" s="11" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AG60" s="188"/>
       <c r="AH60" s="188"/>
@@ -8489,10 +8494,10 @@
       </c>
       <c r="V61" s="172"/>
       <c r="W61" s="42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X61" s="24" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Y61" s="36">
         <v>2620</v>
@@ -8515,7 +8520,7 @@
         <v>820</v>
       </c>
       <c r="AF61" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AG61" s="188"/>
       <c r="AH61" s="188"/>
@@ -8551,10 +8556,10 @@
       <c r="U62" s="182"/>
       <c r="V62" s="172"/>
       <c r="W62" s="42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X62" s="25" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="Y62" s="55">
         <v>2550</v>
@@ -8577,7 +8582,7 @@
         <v>780</v>
       </c>
       <c r="AF62" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AG62" s="189"/>
       <c r="AH62" s="188"/>
@@ -8594,19 +8599,19 @@
         <v>15</v>
       </c>
       <c r="B63" s="154" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C63" s="157" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D63" s="154" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E63" s="154" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F63" s="154" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G63" s="154"/>
       <c r="H63" s="154">
@@ -8631,13 +8636,13 @@
         <v>11.205</v>
       </c>
       <c r="O63" s="154" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P63" s="154">
         <v>1505</v>
       </c>
       <c r="Q63" s="154" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R63" s="154">
         <v>0.7</v>
@@ -8646,7 +8651,7 @@
         <v>13.191000000000001</v>
       </c>
       <c r="T63" s="154" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U63" s="196">
         <f>N63/S63</f>
@@ -8656,10 +8661,10 @@
         <v>3</v>
       </c>
       <c r="W63" s="53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X63" s="54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y63" s="56">
         <v>2720</v>
@@ -8685,15 +8690,15 @@
         <v>760</v>
       </c>
       <c r="AF63" s="19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG63" s="160" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH63" s="160"/>
       <c r="AI63" s="160"/>
       <c r="AJ63" s="157" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK63" s="76">
         <v>990</v>
@@ -8708,7 +8713,7 @@
         <v>215</v>
       </c>
       <c r="AO63" s="211" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:41" ht="15.9" customHeight="1">
@@ -8735,10 +8740,10 @@
       <c r="U64" s="197"/>
       <c r="V64" s="158"/>
       <c r="W64" s="53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X64" s="121" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y64" s="61">
         <v>2520</v>
@@ -8761,7 +8766,7 @@
         <v>900</v>
       </c>
       <c r="AF64" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AG64" s="161"/>
       <c r="AH64" s="161"/>
@@ -8797,10 +8802,10 @@
       <c r="U65" s="197"/>
       <c r="V65" s="158"/>
       <c r="W65" s="53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X65" s="54" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="Y65" s="56">
         <v>2380</v>
@@ -8823,7 +8828,7 @@
         <v>820</v>
       </c>
       <c r="AF65" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AG65" s="161"/>
       <c r="AH65" s="161"/>
@@ -8883,19 +8888,19 @@
         <v>16</v>
       </c>
       <c r="B67" s="162" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C67" s="171" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D67" s="162" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E67" s="162" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F67" s="162" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G67" s="162"/>
       <c r="H67" s="162">
@@ -8920,7 +8925,7 @@
         <v>5.88</v>
       </c>
       <c r="O67" s="162" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P67" s="162">
         <v>1270</v>
@@ -8935,7 +8940,7 @@
         <v>7.048</v>
       </c>
       <c r="T67" s="168" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U67" s="181">
         <f>N67/S67</f>
@@ -8945,10 +8950,10 @@
         <v>3</v>
       </c>
       <c r="W67" s="42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X67" s="70" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y67" s="36">
         <v>2120</v>
@@ -8974,15 +8979,15 @@
         <v>732</v>
       </c>
       <c r="AF67" s="11" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AG67" s="187" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH67" s="187"/>
       <c r="AI67" s="187"/>
       <c r="AJ67" s="171" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK67" s="98">
         <v>418</v>
@@ -8997,7 +9002,7 @@
         <v>100</v>
       </c>
       <c r="AO67" s="208" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:41" ht="15.9" customHeight="1">
@@ -9024,10 +9029,10 @@
       <c r="U68" s="182"/>
       <c r="V68" s="172"/>
       <c r="W68" s="42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X68" s="133" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y68" s="55">
         <v>2010</v>
@@ -9050,7 +9055,7 @@
         <v>792</v>
       </c>
       <c r="AF68" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AG68" s="188"/>
       <c r="AH68" s="188"/>
@@ -9086,10 +9091,10 @@
       <c r="U69" s="182"/>
       <c r="V69" s="172"/>
       <c r="W69" s="42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X69" s="70" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="Y69" s="36">
         <v>2010</v>
@@ -9112,7 +9117,7 @@
         <v>792</v>
       </c>
       <c r="AF69" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AG69" s="188"/>
       <c r="AH69" s="188"/>
@@ -9172,19 +9177,19 @@
         <v>17</v>
       </c>
       <c r="B71" s="162" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C71" s="165" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D71" s="168" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E71" s="168" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F71" s="168" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G71" s="168"/>
       <c r="H71" s="168">
@@ -9209,7 +9214,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="O71" s="168" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P71" s="168">
         <v>1640</v>
@@ -9224,7 +9229,7 @@
         <v>7.7949999999999999</v>
       </c>
       <c r="T71" s="168" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U71" s="205">
         <f>N71/S71</f>
@@ -9234,10 +9239,10 @@
         <v>3</v>
       </c>
       <c r="W71" s="42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X71" s="70" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Y71" s="55">
         <v>2480</v>
@@ -9263,15 +9268,15 @@
         <v>800</v>
       </c>
       <c r="AF71" s="68" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG71" s="177" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH71" s="177"/>
       <c r="AI71" s="177"/>
       <c r="AJ71" s="165" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK71" s="13">
         <v>720</v>
@@ -9286,7 +9291,7 @@
         <v>95</v>
       </c>
       <c r="AO71" s="191" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:41" ht="15.9" customHeight="1">
@@ -9313,10 +9318,10 @@
       <c r="U72" s="206"/>
       <c r="V72" s="166"/>
       <c r="W72" s="42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X72" s="70" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Y72" s="36">
         <v>2550</v>
@@ -9339,7 +9344,7 @@
         <v>835</v>
       </c>
       <c r="AF72" s="68" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AG72" s="178"/>
       <c r="AH72" s="178"/>
@@ -9375,10 +9380,10 @@
       <c r="U73" s="206"/>
       <c r="V73" s="166"/>
       <c r="W73" s="42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X73" s="70" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Y73" s="36">
         <v>2380</v>
@@ -9401,7 +9406,7 @@
         <v>850</v>
       </c>
       <c r="AF73" s="68" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="AG73" s="178"/>
       <c r="AH73" s="178"/>
@@ -9461,19 +9466,19 @@
         <v>18</v>
       </c>
       <c r="B75" s="162" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C75" s="165" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D75" s="162" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E75" s="162" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F75" s="162" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G75" s="162"/>
       <c r="H75" s="162">
@@ -9498,7 +9503,7 @@
         <v>9.14</v>
       </c>
       <c r="O75" s="162" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="P75" s="162">
         <v>1560</v>
@@ -9514,7 +9519,7 @@
         <v>15.283007999999999</v>
       </c>
       <c r="T75" s="168" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="U75" s="181">
         <f>N75/S75</f>
@@ -9524,10 +9529,10 @@
         <v>4</v>
       </c>
       <c r="W75" s="134" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X75" s="70" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Y75" s="55">
         <v>2820</v>
@@ -9544,12 +9549,12 @@
       <c r="AE75" s="138"/>
       <c r="AF75" s="11"/>
       <c r="AG75" s="187" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AH75" s="187"/>
       <c r="AI75" s="187"/>
       <c r="AJ75" s="171" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK75" s="139">
         <v>780</v>
@@ -9562,7 +9567,7 @@
         <v>130</v>
       </c>
       <c r="AO75" s="191" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:41" ht="15.9" customHeight="1">
@@ -9589,10 +9594,10 @@
       <c r="U76" s="182"/>
       <c r="V76" s="172"/>
       <c r="W76" s="134" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X76" s="70" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y76" s="36">
         <v>3370</v>
@@ -9642,10 +9647,10 @@
       <c r="U77" s="182"/>
       <c r="V77" s="172"/>
       <c r="W77" s="134" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X77" s="70" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Y77" s="36">
         <v>2940</v>
@@ -9695,10 +9700,10 @@
       <c r="U78" s="183"/>
       <c r="V78" s="173"/>
       <c r="W78" s="134" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X78" s="70" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Y78" s="36">
         <v>3100</v>
@@ -9729,19 +9734,19 @@
         <v>19</v>
       </c>
       <c r="B79" s="154" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C79" s="157" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D79" s="154" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E79" s="154" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F79" s="154" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G79" s="154"/>
       <c r="H79" s="154">
@@ -9766,7 +9771,7 @@
         <v>7.14</v>
       </c>
       <c r="O79" s="154" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P79" s="154">
         <v>1500</v>
@@ -9782,7 +9787,7 @@
         <v>13.352849999999998</v>
       </c>
       <c r="T79" s="154" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="U79" s="196">
         <f>N79/S79</f>
@@ -9792,10 +9797,10 @@
         <v>4</v>
       </c>
       <c r="W79" s="53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X79" s="121" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y79" s="121">
         <v>2850</v>
@@ -9812,12 +9817,12 @@
       <c r="AE79" s="64"/>
       <c r="AF79" s="19"/>
       <c r="AG79" s="160" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AH79" s="160"/>
       <c r="AI79" s="160"/>
       <c r="AJ79" s="157" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK79" s="65">
         <v>960</v>
@@ -9830,7 +9835,7 @@
         <v>135</v>
       </c>
       <c r="AO79" s="191" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:41" s="20" customFormat="1" ht="15.9" customHeight="1">
@@ -9857,10 +9862,10 @@
       <c r="U80" s="197"/>
       <c r="V80" s="158"/>
       <c r="W80" s="53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X80" s="121" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y80" s="121">
         <v>3070</v>
@@ -9910,10 +9915,10 @@
       <c r="U81" s="197"/>
       <c r="V81" s="158"/>
       <c r="W81" s="53" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X81" s="121" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y81" s="121">
         <v>3160</v>
@@ -9963,10 +9968,10 @@
       <c r="U82" s="198"/>
       <c r="V82" s="159"/>
       <c r="W82" s="53" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X82" s="121" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Y82" s="121">
         <v>2630</v>
@@ -9997,17 +10002,17 @@
         <v>1</v>
       </c>
       <c r="B83" s="162" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C83" s="165" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D83" s="162" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E83" s="162"/>
       <c r="F83" s="162" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G83" s="162"/>
       <c r="H83" s="101"/>
@@ -10026,7 +10031,7 @@
         <v>5.327</v>
       </c>
       <c r="O83" s="169" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P83" s="169">
         <v>1045</v>
@@ -10041,7 +10046,7 @@
         <v>15.06</v>
       </c>
       <c r="T83" s="168" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="U83" s="205">
         <v>0.70743691899070382</v>
@@ -10050,10 +10055,10 @@
         <v>4</v>
       </c>
       <c r="W83" s="42" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="X83" s="25" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Y83" s="26">
         <v>3750</v>
@@ -10076,17 +10081,17 @@
       </c>
       <c r="AE83" s="51"/>
       <c r="AF83" s="68" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AG83" s="177" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AH83" s="177">
         <v>8</v>
       </c>
       <c r="AI83" s="144"/>
       <c r="AJ83" s="165" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AK83" s="68">
         <v>900</v>
@@ -10101,7 +10106,7 @@
         <v>65</v>
       </c>
       <c r="AO83" s="191" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:41" ht="15.9" customHeight="1">
@@ -10128,10 +10133,10 @@
       <c r="U84" s="206"/>
       <c r="V84" s="172"/>
       <c r="W84" s="42" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="X84" s="25" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Y84" s="26">
         <v>3640</v>
@@ -10151,7 +10156,7 @@
       </c>
       <c r="AE84" s="51"/>
       <c r="AF84" s="68" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AG84" s="178"/>
       <c r="AH84" s="178"/>
@@ -10191,10 +10196,10 @@
       <c r="U85" s="206"/>
       <c r="V85" s="172"/>
       <c r="W85" s="42" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="X85" s="25" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Y85" s="26">
         <v>3600</v>
@@ -10214,7 +10219,7 @@
       </c>
       <c r="AE85" s="51"/>
       <c r="AF85" s="68" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AG85" s="178"/>
       <c r="AH85" s="178"/>
@@ -10252,10 +10257,10 @@
       <c r="U86" s="207"/>
       <c r="V86" s="173"/>
       <c r="W86" s="42" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="X86" s="25" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="Y86" s="26">
         <v>3960</v>
@@ -10275,7 +10280,7 @@
       </c>
       <c r="AE86" s="51"/>
       <c r="AF86" s="68" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AG86" s="178"/>
       <c r="AH86" s="178"/>
@@ -10294,17 +10299,17 @@
         <v>2</v>
       </c>
       <c r="B87" s="154" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C87" s="157" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D87" s="154" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E87" s="154"/>
       <c r="F87" s="154" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G87" s="100"/>
       <c r="H87" s="100"/>
@@ -10323,13 +10328,13 @@
         <v>5.0839999999999996</v>
       </c>
       <c r="O87" s="154" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P87" s="154">
         <v>1120</v>
       </c>
       <c r="Q87" s="154" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="R87" s="154">
         <v>0.7</v>
@@ -10338,7 +10343,7 @@
         <v>15.1</v>
       </c>
       <c r="T87" s="154" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="U87" s="196">
         <v>0.67337748344370862</v>
@@ -10347,10 +10352,10 @@
         <v>4</v>
       </c>
       <c r="W87" s="53" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="X87" s="121" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Y87" s="56">
         <v>3760</v>
@@ -10373,17 +10378,17 @@
       </c>
       <c r="AE87" s="65"/>
       <c r="AF87" s="19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AG87" s="161" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AH87" s="160">
         <v>8</v>
       </c>
       <c r="AI87" s="143"/>
       <c r="AJ87" s="157" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AK87" s="19">
         <v>900</v>
@@ -10423,10 +10428,10 @@
       <c r="U88" s="197"/>
       <c r="V88" s="158"/>
       <c r="W88" s="53" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="X88" s="54" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Y88" s="56">
         <v>3900</v>
@@ -10446,7 +10451,7 @@
       </c>
       <c r="AE88" s="65"/>
       <c r="AF88" s="19" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AG88" s="161"/>
       <c r="AH88" s="161"/>
@@ -10486,10 +10491,10 @@
       <c r="U89" s="197"/>
       <c r="V89" s="158"/>
       <c r="W89" s="53" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="X89" s="121" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Y89" s="56">
         <v>3600</v>
@@ -10509,7 +10514,7 @@
       </c>
       <c r="AE89" s="65"/>
       <c r="AF89" s="19" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AG89" s="161"/>
       <c r="AH89" s="161"/>
@@ -10547,10 +10552,10 @@
       <c r="U90" s="198"/>
       <c r="V90" s="159"/>
       <c r="W90" s="53" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="X90" s="54" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="Y90" s="56">
         <v>3920</v>
@@ -10570,7 +10575,7 @@
       </c>
       <c r="AE90" s="65"/>
       <c r="AF90" s="19" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AG90" s="190"/>
       <c r="AH90" s="161"/>
@@ -10589,17 +10594,17 @@
         <v>3</v>
       </c>
       <c r="B91" s="162" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C91" s="165" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D91" s="168" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E91" s="168"/>
       <c r="F91" s="168" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G91" s="168"/>
       <c r="H91" s="168"/>
@@ -10618,7 +10623,7 @@
         <v>5.1989999999999998</v>
       </c>
       <c r="O91" s="168" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="P91" s="168">
         <v>1280</v>
@@ -10634,7 +10639,7 @@
         <v>7.2446079999999986</v>
       </c>
       <c r="T91" s="162" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="U91" s="205">
         <f>N91/S91</f>
@@ -10644,10 +10649,10 @@
         <v>3</v>
       </c>
       <c r="W91" s="42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X91" s="70" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Y91" s="55">
         <v>2220</v>
@@ -10664,12 +10669,12 @@
       <c r="AE91" s="71"/>
       <c r="AF91" s="68"/>
       <c r="AG91" s="187" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AH91" s="177"/>
       <c r="AI91" s="177"/>
       <c r="AJ91" s="165" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AK91" s="13">
         <v>350</v>
@@ -10682,7 +10687,7 @@
         <v>100</v>
       </c>
       <c r="AO91" s="191" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:41" s="20" customFormat="1" ht="15.9" customHeight="1">
@@ -10709,10 +10714,10 @@
       <c r="U92" s="206"/>
       <c r="V92" s="166"/>
       <c r="W92" s="42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X92" s="25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y92" s="55">
         <v>2500</v>
@@ -10762,10 +10767,10 @@
       <c r="U93" s="206"/>
       <c r="V93" s="166"/>
       <c r="W93" s="42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X93" s="24" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y93" s="36">
         <v>2180</v>
@@ -12771,9 +12776,6 @@
     <mergeCell ref="S41:S44"/>
     <mergeCell ref="U15:U18"/>
     <mergeCell ref="AI15:AI18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q15:Q18"/>
     <mergeCell ref="R15:R18"/>
     <mergeCell ref="S15:S18"/>
     <mergeCell ref="T15:T18"/>
@@ -12788,6 +12790,13 @@
     <mergeCell ref="H15:H18"/>
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="J15:J18"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
@@ -12881,6 +12890,9 @@
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q15:Q18"/>
     <mergeCell ref="AJ19:AJ22"/>
     <mergeCell ref="AO19:AO22"/>
     <mergeCell ref="K19:K22"/>
@@ -12917,13 +12929,10 @@
     <mergeCell ref="E23:E27"/>
     <mergeCell ref="F23:F27"/>
     <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="U28:U31"/>
+    <mergeCell ref="V28:V31"/>
+    <mergeCell ref="AC28:AC31"/>
+    <mergeCell ref="AJ28:AJ31"/>
     <mergeCell ref="F28:F31"/>
     <mergeCell ref="G28:G31"/>
     <mergeCell ref="H28:H31"/>
@@ -12933,15 +12942,6 @@
     <mergeCell ref="L28:L31"/>
     <mergeCell ref="M28:M31"/>
     <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="AG28:AG31"/>
-    <mergeCell ref="U28:U31"/>
-    <mergeCell ref="V28:V31"/>
-    <mergeCell ref="AC28:AC31"/>
-    <mergeCell ref="AJ28:AJ31"/>
     <mergeCell ref="AO28:AO31"/>
     <mergeCell ref="S28:S31"/>
     <mergeCell ref="T28:T31"/>
@@ -12961,6 +12961,11 @@
     <mergeCell ref="AO32:AO36"/>
     <mergeCell ref="AH28:AH31"/>
     <mergeCell ref="AI28:AI31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="AG28:AG31"/>
     <mergeCell ref="M37:M40"/>
     <mergeCell ref="N37:N40"/>
     <mergeCell ref="O37:O40"/>
@@ -13421,7 +13426,7 @@
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="15.9" customHeight="1">
       <c r="A3" s="223" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="226" t="s">
         <v>2</v>
@@ -13436,16 +13441,16 @@
     <row r="4" spans="1:6" ht="23.25" customHeight="1">
       <c r="A4" s="224"/>
       <c r="B4" s="221" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="221" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="221" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E4" s="221" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="229"/>
     </row>
@@ -13462,10 +13467,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="155" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="158" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6" s="161" t="s">
         <v>13</v>
@@ -13515,7 +13520,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="166" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="177" t="s">
         <v>13</v>
@@ -13557,10 +13562,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="157" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="160" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15" s="160">
         <v>11</v>
@@ -13596,13 +13601,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="162" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C19" s="171" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="187" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E19" s="187">
         <v>8</v>
@@ -13641,10 +13646,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="158" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D23" s="160" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" s="160">
         <v>8</v>
@@ -13680,13 +13685,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="162" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27" s="171" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D27" s="187" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E27" s="187">
         <v>8</v>
@@ -13730,13 +13735,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="154" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C32" s="157" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D32" s="160" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E32" s="160">
         <v>8</v>
@@ -13772,13 +13777,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="162" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C36" s="171" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D36" s="187" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E36" s="187">
         <v>8</v>
@@ -13825,10 +13830,10 @@
         <v>18</v>
       </c>
       <c r="C41" s="158" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D41" s="160" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E41" s="160">
         <v>8</v>
@@ -13864,13 +13869,13 @@
         <v>10</v>
       </c>
       <c r="B45" s="162" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C45" s="171" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D45" s="187" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E45" s="187"/>
       <c r="F45" s="208"/>
@@ -13904,13 +13909,13 @@
         <v>11</v>
       </c>
       <c r="B49" s="154" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C49" s="157" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D49" s="160" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E49" s="160"/>
       <c r="F49" s="211"/>
@@ -13947,10 +13952,10 @@
         <v>14</v>
       </c>
       <c r="C53" s="166" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D53" s="177" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E53" s="177"/>
       <c r="F53" s="191"/>
@@ -13992,13 +13997,13 @@
         <v>13</v>
       </c>
       <c r="B58" s="154" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C58" s="157" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D58" s="160" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E58" s="160"/>
       <c r="F58" s="211"/>
@@ -14040,13 +14045,13 @@
         <v>14</v>
       </c>
       <c r="B63" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="171" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="187" t="s">
         <v>101</v>
-      </c>
-      <c r="C63" s="171" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="187" t="s">
-        <v>105</v>
       </c>
       <c r="E63" s="187"/>
       <c r="F63" s="208"/>
@@ -14080,13 +14085,13 @@
         <v>15</v>
       </c>
       <c r="B67" s="154" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C67" s="157" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D67" s="160" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E67" s="160"/>
       <c r="F67" s="211"/>
@@ -14120,13 +14125,13 @@
         <v>16</v>
       </c>
       <c r="B71" s="162" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C71" s="171" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D71" s="187" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E71" s="187"/>
       <c r="F71" s="208"/>
@@ -14160,13 +14165,13 @@
         <v>17</v>
       </c>
       <c r="B75" s="162" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C75" s="165" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D75" s="177" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E75" s="177"/>
       <c r="F75" s="191"/>
@@ -14200,13 +14205,13 @@
         <v>18</v>
       </c>
       <c r="B79" s="162" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C79" s="165" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D79" s="187" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E79" s="187"/>
       <c r="F79" s="191"/>
@@ -14240,13 +14245,13 @@
         <v>19</v>
       </c>
       <c r="B83" s="154" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C83" s="157" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D83" s="160" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E83" s="160"/>
       <c r="F83" s="191"/>
@@ -14280,13 +14285,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="162" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C87" s="165" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D87" s="177" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E87" s="177">
         <v>8</v>
@@ -14322,13 +14327,13 @@
         <v>2</v>
       </c>
       <c r="B91" s="154" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C91" s="157" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D91" s="161" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E91" s="160">
         <v>8</v>
@@ -14364,13 +14369,13 @@
         <v>3</v>
       </c>
       <c r="B95" s="162" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C95" s="165" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D95" s="187" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E95" s="177"/>
       <c r="F95" s="191"/>
